--- a/posesiones/1381298.xlsx
+++ b/posesiones/1381298.xlsx
@@ -1964,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>19</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>18</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>11</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>6</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>15</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>20</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>9</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>8</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R42">
         <v>17</v>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>6</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>15</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>21</v>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R58">
         <v>11</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63">
         <v>21</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>6</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>15</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R71">
         <v>6</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R80">
         <v>15</v>
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R81">
         <v>17</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R86">
         <v>11</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>8</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R94">
         <v>15</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R98">
         <v>31</v>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R99">
         <v>17</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R100">
         <v>20</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>7</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>16</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R108">
         <v>14</v>
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R109">
         <v>12</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R114">
         <v>11</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R118">
         <v>18</v>
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8010,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>8</v>
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R126">
         <v>12</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R128">
         <v>13</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R132">
         <v>26</v>
@@ -8407,10 +8407,10 @@
         <v>1</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8733,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R141">
         <v>18</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R143">
         <v>13</v>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R144">
         <v>15</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R150">
         <v>29</v>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R153">
         <v>21</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R155">
         <v>19</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R161">
         <v>17</v>
@@ -9824,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R162">
         <v>18</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R164">
         <v>6</v>
@@ -9980,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R165">
         <v>12</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>6</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R176">
         <v>27</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R180">
         <v>21</v>
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R182">
         <v>14</v>
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R191">
         <v>7</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R192">
         <v>11</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R194">
         <v>8</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11544,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R200">
         <v>17</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11791,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R202">
         <v>8</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R204">
         <v>13</v>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R207">
         <v>24</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R210">
         <v>16</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12482,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R216">
         <v>13</v>
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R217">
         <v>12</v>
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12635,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12735,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13067,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R228">
         <v>14</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R231">
         <v>0</v>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R232">
         <v>7</v>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R235">
         <v>12</v>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13714,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R241">
         <v>19</v>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13858,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R245">
         <v>10</v>
@@ -13961,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R246">
         <v>18</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R249">
         <v>20</v>
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14446,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14496,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R258">
         <v>18</v>
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R259">
         <v>19</v>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R261">
         <v>17</v>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14796,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R264">
         <v>15</v>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14946,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R266">
         <v>17</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15046,7 +15046,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R268">
         <v>15</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15149,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R270">
         <v>7</v>
@@ -15199,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15240,10 +15240,10 @@
         <v>1</v>
       </c>
       <c r="P272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15754,10 +15754,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q283">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15857,7 +15857,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R285">
         <v>12</v>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R287">
         <v>19</v>
@@ -16007,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R289">
         <v>12</v>
@@ -16110,7 +16110,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R290">
         <v>15</v>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16207,7 +16207,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R295">
         <v>11</v>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16454,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R297">
         <v>16</v>
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16551,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16601,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R300">
         <v>23</v>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R301">
         <v>13</v>
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16801,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R305">
         <v>17</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16951,7 +16951,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R307">
         <v>14</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R309">
         <v>8</v>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17157,7 +17157,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17257,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R313">
         <v>4</v>
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R316">
         <v>19</v>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17504,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R318">
         <v>9</v>
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17607,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R320">
         <v>7</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17707,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R322">
         <v>7</v>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R324">
         <v>19</v>
@@ -17860,7 +17860,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R325">
         <v>24</v>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R333">
         <v>8</v>
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R335">
         <v>17</v>
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18492,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18689,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R342">
         <v>44</v>
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18886,7 +18886,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>16</v>
@@ -18939,7 +18939,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18989,7 +18989,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R348">
         <v>4</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R354">
         <v>32</v>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19383,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R356">
         <v>7</v>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19577,7 +19577,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R360">
         <v>8</v>
@@ -19630,7 +19630,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>14</v>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19780,7 +19780,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R364">
         <v>6</v>
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20162,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R372">
         <v>19</v>
@@ -20212,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R376">
         <v>14</v>
@@ -20409,7 +20409,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20462,7 +20462,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20791,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20885,7 +20885,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20935,7 +20935,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R388">
         <v>9</v>
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21082,7 +21082,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R391">
         <v>12</v>
@@ -21132,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21182,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21232,7 +21232,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R394">
         <v>34</v>
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21476,7 +21476,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R399">
         <v>8</v>
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R400">
         <v>10</v>
@@ -21582,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R401">
         <v>13</v>
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R403">
         <v>14</v>
@@ -21735,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21782,7 +21782,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21829,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21879,7 +21879,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>4</v>
@@ -21932,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R408">
         <v>19</v>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R409">
         <v>4</v>
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22085,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22132,7 +22132,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22179,7 +22179,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22229,7 +22229,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R414">
         <v>6</v>
@@ -22282,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>2</v>
@@ -22326,10 +22326,10 @@
         <v>1</v>
       </c>
       <c r="P416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22423,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22652,10 +22652,10 @@
         <v>1</v>
       </c>
       <c r="P423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q423">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22887,7 +22887,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R428">
         <v>10</v>
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23034,7 +23034,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R431">
         <v>13</v>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23131,7 +23131,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23178,7 +23178,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23319,7 +23319,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23510,7 +23510,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R441">
         <v>15</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23610,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23657,7 +23657,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23801,7 +23801,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R447">
         <v>34</v>
@@ -23851,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23901,7 +23901,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R449">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R450">
         <v>8</v>
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24054,7 +24054,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>8</v>
@@ -24107,7 +24107,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R453">
         <v>13</v>
@@ -24157,7 +24157,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24207,7 +24207,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R455">
         <v>9</v>
@@ -24260,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R456">
         <v>15</v>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R458">
         <v>13</v>
@@ -24413,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R460">
         <v>16</v>
@@ -24513,7 +24513,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24563,7 +24563,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R462">
         <v>18</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24710,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24760,7 +24760,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R466">
         <v>19</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24863,7 +24863,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R468">
         <v>11</v>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24966,7 +24966,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R470">
         <v>5</v>
@@ -25019,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>13</v>
@@ -25069,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R476">
         <v>15</v>
@@ -25313,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25410,7 +25410,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R479">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25507,7 +25507,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R481">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R482">
         <v>0</v>
@@ -25610,7 +25610,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25704,7 +25704,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25754,7 +25754,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R486">
         <v>0</v>
@@ -25807,7 +25807,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R487">
         <v>10</v>
@@ -25860,7 +25860,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25910,7 +25910,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R489">
         <v>8</v>
@@ -25960,7 +25960,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26010,7 +26010,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R491">
         <v>21</v>
@@ -26060,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26110,7 +26110,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R493">
         <v>12</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26207,7 +26207,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26254,7 +26254,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26301,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26351,7 +26351,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R498">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R501">
         <v>14</v>
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26598,7 +26598,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26645,7 +26645,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26695,7 +26695,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R505">
         <v>16</v>
@@ -26742,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26789,7 +26789,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26836,7 +26836,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26886,7 +26886,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R509">
         <v>12</v>
@@ -26936,7 +26936,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26986,7 +26986,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R511">
         <v>13</v>
@@ -27036,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27086,7 +27086,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R513">
         <v>16</v>
@@ -27139,7 +27139,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27189,7 +27189,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R515">
         <v>18</v>
@@ -27239,7 +27239,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27289,7 +27289,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R517">
         <v>12</v>
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27386,7 +27386,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27480,7 +27480,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27527,7 +27527,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27577,7 +27577,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R523">
         <v>25</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27674,7 +27674,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27721,7 +27721,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27818,7 +27818,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R528">
         <v>13</v>
@@ -27871,7 +27871,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R529">
         <v>16</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27974,7 +27974,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R531">
         <v>8</v>
@@ -28024,7 +28024,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28074,7 +28074,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R533">
         <v>10</v>
@@ -28124,7 +28124,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28174,7 +28174,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R535">
         <v>8</v>
@@ -28227,7 +28227,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R536">
         <v>8</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28327,7 +28327,7 @@
         <v>1</v>
       </c>
       <c r="Q538">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R538">
         <v>20</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28427,7 +28427,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R540">
         <v>27</v>
@@ -28480,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28530,7 +28530,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R542">
         <v>7</v>
@@ -28583,7 +28583,7 @@
         <v>1</v>
       </c>
       <c r="Q543">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R543">
         <v>8</v>
@@ -28636,7 +28636,7 @@
         <v>1</v>
       </c>
       <c r="Q544">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="R544">
         <v>16</v>
@@ -28692,7 +28692,7 @@
         <v>1</v>
       </c>
       <c r="Q545">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="R545">
         <v>2</v>
@@ -28736,10 +28736,10 @@
         <v>1</v>
       </c>
       <c r="P546" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q546">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28780,7 +28780,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
